--- a/data/Lager.xlsx
+++ b/data/Lager.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\djord\Desktop\B\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matij\Desktop\Perfume-Finder\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01A179A5-BEE6-4766-B75E-4F4AE7779B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D191249-FDD8-467F-9ADB-C83EBD43B7CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1965" yWindow="1230" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="169">
   <si>
     <t>LALIQUE</t>
   </si>
@@ -146,9 +146,6 @@
   </si>
   <si>
     <t>ORTO PARISI</t>
-  </si>
-  <si>
-    <t>edt 100ml + SG100ml</t>
   </si>
   <si>
     <t>aftershave</t>
@@ -1016,68 +1013,68 @@
   <dimension ref="A1:K95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.1796875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.08984375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
         <v>47</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>12</v>
@@ -1102,15 +1099,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -1135,15 +1132,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -1168,15 +1165,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>8</v>
@@ -1201,15 +1198,15 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1</v>
@@ -1234,15 +1231,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>8</v>
@@ -1267,15 +1264,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>8</v>
@@ -1300,15 +1297,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="B9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
@@ -1333,15 +1330,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1</v>
@@ -1366,15 +1363,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
@@ -1399,15 +1396,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1</v>
@@ -1432,18 +1429,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B13" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>22</v>
@@ -1465,15 +1462,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B14" t="s">
         <v>141</v>
       </c>
-      <c r="B14" t="s">
-        <v>142</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1</v>
@@ -1498,15 +1495,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" t="s">
         <v>155</v>
       </c>
-      <c r="B15" t="s">
-        <v>156</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>12</v>
@@ -1531,15 +1528,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
@@ -1564,15 +1561,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>1</v>
@@ -1597,15 +1594,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>19</v>
@@ -1630,15 +1627,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>5</v>
@@ -1650,7 +1647,7 @@
         <v>6</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H19" s="2">
         <v>1</v>
@@ -1666,15 +1663,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>5</v>
@@ -1699,15 +1696,15 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1</v>
@@ -1732,15 +1729,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1</v>
@@ -1765,15 +1762,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1</v>
@@ -1798,15 +1795,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>12</v>
@@ -1831,15 +1828,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>19</v>
@@ -1864,15 +1861,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1</v>
@@ -1897,15 +1894,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1</v>
@@ -1930,15 +1927,15 @@
         <v>110</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1</v>
@@ -1963,15 +1960,15 @@
         <v>89.5</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>17</v>
@@ -1996,15 +1993,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>19</v>
@@ -2029,15 +2026,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>32</v>
@@ -2062,15 +2059,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
@@ -2095,15 +2092,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B33" t="s">
         <v>163</v>
       </c>
-      <c r="B33" t="s">
-        <v>164</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>1</v>
@@ -2128,15 +2125,15 @@
         <v>217</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>1</v>
@@ -2161,15 +2158,15 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>25</v>
@@ -2194,15 +2191,15 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>12</v>
@@ -2227,15 +2224,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>1</v>
@@ -2260,15 +2257,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>1</v>
@@ -2293,15 +2290,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>1</v>
@@ -2326,15 +2323,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>17</v>
@@ -2359,15 +2356,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B41" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>17</v>
@@ -2392,15 +2389,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>1</v>
@@ -2425,15 +2422,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>1</v>
@@ -2458,15 +2455,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>19</v>
@@ -2491,15 +2488,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>1</v>
@@ -2524,15 +2521,15 @@
         <v>69.5</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>1</v>
@@ -2557,15 +2554,15 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>1</v>
@@ -2590,15 +2587,15 @@
         <v>49.5</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>1</v>
@@ -2623,15 +2620,15 @@
         <v>45.5</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>1</v>
@@ -2656,15 +2653,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>1</v>
@@ -2689,15 +2686,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>1</v>
@@ -2722,18 +2719,18 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" t="s">
+        <v>139</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B52" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>22</v>
@@ -2755,18 +2752,18 @@
         <v>205</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B53" t="s">
-        <v>162</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>23</v>
@@ -2788,18 +2785,18 @@
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B54" t="s">
-        <v>97</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>22</v>
@@ -2821,18 +2818,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>157</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="B55" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>22</v>
@@ -2841,7 +2838,7 @@
         <v>16</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H55" s="2">
         <v>1</v>
@@ -2857,15 +2854,15 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>1</v>
@@ -2890,15 +2887,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>1</v>
@@ -2923,15 +2920,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>1</v>
@@ -2956,15 +2953,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>1</v>
@@ -2989,15 +2986,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>1</v>
@@ -3022,15 +3019,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>1</v>
@@ -3055,15 +3052,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>5</v>
@@ -3088,15 +3085,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" t="s">
         <v>134</v>
       </c>
-      <c r="B63" t="s">
-        <v>135</v>
-      </c>
       <c r="C63" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>1</v>
@@ -3121,15 +3118,15 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B64" t="s">
         <v>167</v>
       </c>
-      <c r="B64" t="s">
-        <v>168</v>
-      </c>
       <c r="C64" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>1</v>
@@ -3154,15 +3151,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>1</v>
@@ -3187,16 +3184,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B66" t="s">
         <v>121</v>
       </c>
-      <c r="B66" t="s">
+      <c r="C66" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="D66" s="1" t="s">
         <v>1</v>
       </c>
@@ -3220,15 +3217,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" t="s">
         <v>121</v>
       </c>
-      <c r="B67" t="s">
-        <v>122</v>
-      </c>
       <c r="C67" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>19</v>
@@ -3253,15 +3250,15 @@
         <v>23</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>19</v>
@@ -3286,15 +3283,15 @@
         <v>95</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>1</v>
@@ -3319,15 +3316,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>1</v>
@@ -3352,15 +3349,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>5</v>
@@ -3385,15 +3382,15 @@
         <v>48</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>5</v>
@@ -3418,15 +3415,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>1</v>
@@ -3451,15 +3448,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>1</v>
@@ -3484,15 +3481,15 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>1</v>
@@ -3517,15 +3514,15 @@
         <v>56.5</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>1</v>
@@ -3550,15 +3547,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>1</v>
@@ -3583,15 +3580,15 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>1</v>
@@ -3616,15 +3613,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>25</v>
@@ -3649,15 +3646,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>25</v>
@@ -3682,15 +3679,15 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>24</v>
       </c>
       <c r="B81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>1</v>
@@ -3715,15 +3712,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>1</v>
@@ -3748,15 +3745,15 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>11</v>
@@ -3781,27 +3778,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B84" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" t="s">
+        <v>2</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="F84" t="s">
-        <v>2</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="H84" s="2">
         <v>0</v>
@@ -3817,15 +3814,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B85" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>1</v>
@@ -3837,7 +3834,7 @@
         <v>2</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H85" s="2">
         <v>1</v>
@@ -3853,18 +3850,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B86" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>22</v>
@@ -3886,15 +3883,15 @@
         <v>51.5</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B87" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>19</v>
@@ -3919,15 +3916,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B88" t="s">
         <v>117</v>
       </c>
-      <c r="B88" t="s">
-        <v>118</v>
-      </c>
       <c r="C88" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>1</v>
@@ -3952,15 +3949,15 @@
         <v>80.5</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>11</v>
@@ -3985,15 +3982,15 @@
         <v>44.5</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B90" t="s">
         <v>143</v>
       </c>
-      <c r="B90" t="s">
-        <v>144</v>
-      </c>
       <c r="C90" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>1</v>
@@ -4018,15 +4015,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>11</v>
@@ -4051,15 +4048,15 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>1</v>
@@ -4084,18 +4081,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B93" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>22</v>
@@ -4117,15 +4114,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B94" t="s">
         <v>147</v>
       </c>
-      <c r="B94" t="s">
-        <v>148</v>
-      </c>
       <c r="C94" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>1</v>
@@ -4150,9 +4147,9 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H95" s="2">
         <f>SUBTOTAL(109,Table1[QTY])</f>
